--- a/6Timetable/data/20220325/●予約枠4月元データ（4会場・ダミー稼働日含む）.xlsx
+++ b/6Timetable/data/20220325/●予約枠4月元データ（4会場・ダミー稼働日含む）.xlsx
@@ -444,34 +444,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -511,13 +489,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -529,7 +507,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -545,6 +523,36 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -565,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -601,28 +609,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -634,10 +648,22 @@
     <xf numFmtId="177" fontId="1" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -649,10 +675,22 @@
     <xf numFmtId="178" fontId="1" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -664,40 +702,76 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,7 +1088,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1081,7 +1155,7 @@
         <v>0.40972222222222232</v>
       </c>
       <c r="H2" s="8">
-        <v>0.7222222222222221</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
@@ -1089,7 +1163,7 @@
       </c>
       <c r="J2" s="9" t="str">
         <f>TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-25T17:20:00.000+9</v>
+        <v>2022-03-25T15:20:00.000+9</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1">
@@ -1111,7 +1185,7 @@
         <v>0.40972222222222232</v>
       </c>
       <c r="H3" s="8">
-        <v>0.7222222222222221</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="I3" s="9" t="str">
         <f>TEXT(F3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G3,"hh:MM")&amp;":00.000+9"</f>
@@ -1119,7 +1193,7 @@
       </c>
       <c r="J3" s="9" t="str">
         <f>TEXT(F3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H3,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-25T17:20:00.000+9</v>
+        <v>2022-03-25T15:20:00.000+9</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1">
@@ -1141,7 +1215,7 @@
         <v>0.40972222222222232</v>
       </c>
       <c r="H4" s="8">
-        <v>0.7222222222222221</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="I4" s="9" t="str">
         <f>TEXT(F4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G4,"hh:MM")&amp;":00.000+9"</f>
@@ -1149,7 +1223,7 @@
       </c>
       <c r="J4" s="9" t="str">
         <f>TEXT(F4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H4,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-25T17:20:00.000+9</v>
+        <v>2022-03-25T15:20:00.000+9</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1">
@@ -1171,7 +1245,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="H5" s="8">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333293</v>
       </c>
       <c r="I5" s="9" t="str">
         <f>TEXT(F5,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G5,"hh:MM")&amp;":00.000+9"</f>
@@ -1194,8 +1268,8 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5"/>
@@ -1225,127 +1299,127 @@
       <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="21" t="s">
+      <c r="Q1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1">
       <c r="A2" s="12">
-        <v>3</v>
-      </c>
-      <c r="B2" s="18">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="D2" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24">
         <v>44657</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="33">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="33">
         <v>0.625</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="32">
-        <v>10</v>
-      </c>
-      <c r="K2" s="32">
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="42">
+        <v>10</v>
+      </c>
+      <c r="K2" s="42">
         <v>8</v>
       </c>
-      <c r="L2" s="32">
-        <v>1</v>
-      </c>
-      <c r="M2" s="32">
-        <v>120</v>
-      </c>
-      <c r="N2" s="32">
-        <v>3</v>
-      </c>
-      <c r="O2" s="32">
-        <v>4</v>
-      </c>
-      <c r="P2" s="37" t="str">
+      <c r="L2" s="42">
+        <v>1</v>
+      </c>
+      <c r="M2" s="42">
+        <v>120</v>
+      </c>
+      <c r="N2" s="42">
+        <v>3</v>
+      </c>
+      <c r="O2" s="42">
+        <v>4</v>
+      </c>
+      <c r="P2" s="50" t="str">
         <f t="shared" ref="P2:P52" si="0">C2&amp;"/"&amp;TEXT(E2,"yyyy-mm-dd")</f>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-06</v>
       </c>
-      <c r="Q2" s="41" t="str">
+      <c r="Q2" s="57" t="str">
         <f t="shared" ref="Q2:Q52" si="1">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
         <v>2022-04-06T13:20:00.000+9</v>
       </c>
-      <c r="R2" s="41" t="str">
+      <c r="R2" s="57" t="str">
         <f t="shared" ref="R2:R52" si="2">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
         <v>2022-04-06T15:00:00.000+9</v>
       </c>
-      <c r="S2" s="41" t="str">
+      <c r="S2" s="57" t="str">
         <f t="shared" ref="S2:S52" si="3">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
         <v>2022-04-06T00:00:00.000+9</v>
       </c>
-      <c r="T2" s="44" t="str">
+      <c r="T2" s="63" t="str">
         <f t="shared" ref="T2:T52" si="4">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(I2,"hh:MM")&amp;":00.000+9"</f>
         <v>2022-04-06T00:00:00.000+9</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1">
       <c r="A3" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -1353,39 +1427,39 @@
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="D3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
         <v>44658</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="34">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="34">
         <v>0.625</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="33">
-        <v>10</v>
-      </c>
-      <c r="K3" s="33">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="43">
+        <v>10</v>
+      </c>
+      <c r="K3" s="43">
         <v>8</v>
       </c>
-      <c r="L3" s="33">
-        <v>1</v>
-      </c>
-      <c r="M3" s="33">
-        <v>120</v>
-      </c>
-      <c r="N3" s="33">
-        <v>3</v>
-      </c>
-      <c r="O3" s="33">
-        <v>4</v>
-      </c>
-      <c r="P3" s="38" t="str">
+      <c r="L3" s="43">
+        <v>1</v>
+      </c>
+      <c r="M3" s="43">
+        <v>120</v>
+      </c>
+      <c r="N3" s="43">
+        <v>3</v>
+      </c>
+      <c r="O3" s="43">
+        <v>4</v>
+      </c>
+      <c r="P3" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-07</v>
       </c>
@@ -1401,14 +1475,14 @@
         <f t="shared" si="3"/>
         <v>2022-04-07T00:00:00.000+9</v>
       </c>
-      <c r="T3" s="45" t="str">
+      <c r="T3" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="4" spans="1:20" s="1" customFormat="1">
       <c r="A4" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -1416,39 +1490,39 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
         <v>44664</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="34">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="34">
         <v>0.625</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="33">
-        <v>10</v>
-      </c>
-      <c r="K4" s="33">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="43">
+        <v>10</v>
+      </c>
+      <c r="K4" s="43">
         <v>8</v>
       </c>
-      <c r="L4" s="33">
-        <v>1</v>
-      </c>
-      <c r="M4" s="33">
-        <v>120</v>
-      </c>
-      <c r="N4" s="33">
-        <v>3</v>
-      </c>
-      <c r="O4" s="33">
-        <v>4</v>
-      </c>
-      <c r="P4" s="38" t="str">
+      <c r="L4" s="43">
+        <v>1</v>
+      </c>
+      <c r="M4" s="43">
+        <v>120</v>
+      </c>
+      <c r="N4" s="43">
+        <v>3</v>
+      </c>
+      <c r="O4" s="43">
+        <v>4</v>
+      </c>
+      <c r="P4" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-13</v>
       </c>
@@ -1464,54 +1538,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-13T00:00:00.000+9</v>
       </c>
-      <c r="T4" s="45" t="str">
+      <c r="T4" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-13T00:00:00.000+9</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1">
       <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
         <v>44665</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="34">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="34">
         <v>0.625</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="33">
-        <v>10</v>
-      </c>
-      <c r="K5" s="33">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="43">
+        <v>10</v>
+      </c>
+      <c r="K5" s="43">
         <v>8</v>
       </c>
-      <c r="L5" s="33">
-        <v>1</v>
-      </c>
-      <c r="M5" s="33">
-        <v>120</v>
-      </c>
-      <c r="N5" s="33">
-        <v>3</v>
-      </c>
-      <c r="O5" s="33">
-        <v>4</v>
-      </c>
-      <c r="P5" s="38" t="str">
+      <c r="L5" s="43">
+        <v>1</v>
+      </c>
+      <c r="M5" s="43">
+        <v>120</v>
+      </c>
+      <c r="N5" s="43">
+        <v>3</v>
+      </c>
+      <c r="O5" s="43">
+        <v>4</v>
+      </c>
+      <c r="P5" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-14</v>
       </c>
@@ -1527,14 +1601,14 @@
         <f t="shared" si="3"/>
         <v>2022-04-14T00:00:00.000+9</v>
       </c>
-      <c r="T5" s="45" t="str">
+      <c r="T5" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-14T00:00:00.000+9</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1">
       <c r="A6" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -1542,39 +1616,39 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
         <v>44671</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="34">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="34">
         <v>0.625</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="33">
-        <v>10</v>
-      </c>
-      <c r="K6" s="33">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="43">
+        <v>10</v>
+      </c>
+      <c r="K6" s="43">
         <v>8</v>
       </c>
-      <c r="L6" s="33">
-        <v>1</v>
-      </c>
-      <c r="M6" s="33">
-        <v>120</v>
-      </c>
-      <c r="N6" s="33">
-        <v>3</v>
-      </c>
-      <c r="O6" s="33">
-        <v>4</v>
-      </c>
-      <c r="P6" s="38" t="str">
+      <c r="L6" s="43">
+        <v>1</v>
+      </c>
+      <c r="M6" s="43">
+        <v>120</v>
+      </c>
+      <c r="N6" s="43">
+        <v>3</v>
+      </c>
+      <c r="O6" s="43">
+        <v>4</v>
+      </c>
+      <c r="P6" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-20</v>
       </c>
@@ -1590,14 +1664,14 @@
         <f t="shared" si="3"/>
         <v>2022-04-20T00:00:00.000+9</v>
       </c>
-      <c r="T6" s="45" t="str">
+      <c r="T6" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-20T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="7" spans="1:20" s="1" customFormat="1">
       <c r="A7" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -1605,39 +1679,39 @@
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
         <v>44672</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="34">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="34">
         <v>0.625</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="33">
-        <v>10</v>
-      </c>
-      <c r="K7" s="33">
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="43">
+        <v>10</v>
+      </c>
+      <c r="K7" s="43">
         <v>8</v>
       </c>
-      <c r="L7" s="33">
-        <v>1</v>
-      </c>
-      <c r="M7" s="33">
-        <v>120</v>
-      </c>
-      <c r="N7" s="33">
-        <v>3</v>
-      </c>
-      <c r="O7" s="33">
-        <v>4</v>
-      </c>
-      <c r="P7" s="38" t="str">
+      <c r="L7" s="43">
+        <v>1</v>
+      </c>
+      <c r="M7" s="43">
+        <v>120</v>
+      </c>
+      <c r="N7" s="43">
+        <v>3</v>
+      </c>
+      <c r="O7" s="43">
+        <v>4</v>
+      </c>
+      <c r="P7" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-21</v>
       </c>
@@ -1653,54 +1727,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-21T00:00:00.000+9</v>
       </c>
-      <c r="T7" s="45" t="str">
+      <c r="T7" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-21T00:00:00.000+9</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1">
       <c r="A8" s="13">
-        <v>3</v>
-      </c>
-      <c r="B8" s="18">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
         <v>44678</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="34">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="34">
         <v>0.625</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="33">
-        <v>10</v>
-      </c>
-      <c r="K8" s="33">
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="43">
+        <v>10</v>
+      </c>
+      <c r="K8" s="43">
         <v>8</v>
       </c>
-      <c r="L8" s="33">
-        <v>1</v>
-      </c>
-      <c r="M8" s="33">
-        <v>120</v>
-      </c>
-      <c r="N8" s="33">
-        <v>3</v>
-      </c>
-      <c r="O8" s="33">
-        <v>4</v>
-      </c>
-      <c r="P8" s="38" t="str">
+      <c r="L8" s="43">
+        <v>1</v>
+      </c>
+      <c r="M8" s="43">
+        <v>120</v>
+      </c>
+      <c r="N8" s="43">
+        <v>3</v>
+      </c>
+      <c r="O8" s="43">
+        <v>4</v>
+      </c>
+      <c r="P8" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-27</v>
       </c>
@@ -1716,14 +1790,14 @@
         <f t="shared" si="3"/>
         <v>2022-04-27T00:00:00.000+9</v>
       </c>
-      <c r="T8" s="45" t="str">
+      <c r="T8" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-27T00:00:00.000+9</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1">
       <c r="A9" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -1731,39 +1805,39 @@
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
         <v>44679</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="34">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="34">
         <v>0.625</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="33">
-        <v>10</v>
-      </c>
-      <c r="K9" s="33">
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="43">
+        <v>10</v>
+      </c>
+      <c r="K9" s="43">
         <v>8</v>
       </c>
-      <c r="L9" s="33">
-        <v>1</v>
-      </c>
-      <c r="M9" s="33">
-        <v>120</v>
-      </c>
-      <c r="N9" s="33">
-        <v>3</v>
-      </c>
-      <c r="O9" s="33">
-        <v>4</v>
-      </c>
-      <c r="P9" s="38" t="str">
+      <c r="L9" s="43">
+        <v>1</v>
+      </c>
+      <c r="M9" s="43">
+        <v>120</v>
+      </c>
+      <c r="N9" s="43">
+        <v>3</v>
+      </c>
+      <c r="O9" s="43">
+        <v>4</v>
+      </c>
+      <c r="P9" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-28</v>
       </c>
@@ -1779,54 +1853,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-28T00:00:00.000+9</v>
       </c>
-      <c r="T9" s="45" t="str">
+      <c r="T9" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-28T00:00:00.000+9</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1">
       <c r="A10" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24">
+      <c r="D10" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
         <v>44653</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G10" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="34">
-        <v>10</v>
-      </c>
-      <c r="K10" s="34">
-        <v>10</v>
-      </c>
-      <c r="L10" s="34">
-        <v>1</v>
-      </c>
-      <c r="M10" s="34">
-        <v>120</v>
-      </c>
-      <c r="N10" s="34">
-        <v>3</v>
-      </c>
-      <c r="O10" s="34">
-        <v>4</v>
-      </c>
-      <c r="P10" s="38" t="str">
+      <c r="G10" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="44">
+        <v>10</v>
+      </c>
+      <c r="K10" s="44">
+        <v>10</v>
+      </c>
+      <c r="L10" s="44">
+        <v>1</v>
+      </c>
+      <c r="M10" s="44">
+        <v>120</v>
+      </c>
+      <c r="N10" s="44">
+        <v>3</v>
+      </c>
+      <c r="O10" s="44">
+        <v>4</v>
+      </c>
+      <c r="P10" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-02</v>
       </c>
@@ -1842,54 +1916,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-02T00:00:00.000+9</v>
       </c>
-      <c r="T10" s="45" t="str">
+      <c r="T10" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="11" spans="1:20" s="1" customFormat="1">
       <c r="A11" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="D11" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
         <v>44660</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G11" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="34">
-        <v>10</v>
-      </c>
-      <c r="K11" s="34">
-        <v>10</v>
-      </c>
-      <c r="L11" s="34">
-        <v>1</v>
-      </c>
-      <c r="M11" s="34">
-        <v>120</v>
-      </c>
-      <c r="N11" s="34">
-        <v>3</v>
-      </c>
-      <c r="O11" s="34">
-        <v>4</v>
-      </c>
-      <c r="P11" s="38" t="str">
+      <c r="G11" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="44">
+        <v>10</v>
+      </c>
+      <c r="K11" s="44">
+        <v>10</v>
+      </c>
+      <c r="L11" s="44">
+        <v>1</v>
+      </c>
+      <c r="M11" s="44">
+        <v>120</v>
+      </c>
+      <c r="N11" s="44">
+        <v>3</v>
+      </c>
+      <c r="O11" s="44">
+        <v>4</v>
+      </c>
+      <c r="P11" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-09</v>
       </c>
@@ -1905,54 +1979,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-09T00:00:00.000+9</v>
       </c>
-      <c r="T11" s="45" t="str">
+      <c r="T11" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-09T00:00:00.000+9</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1">
       <c r="A12" s="13">
-        <v>3</v>
-      </c>
-      <c r="B12" s="18">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="D12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26">
         <v>44667</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G12" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="34">
-        <v>10</v>
-      </c>
-      <c r="K12" s="34">
-        <v>10</v>
-      </c>
-      <c r="L12" s="34">
-        <v>1</v>
-      </c>
-      <c r="M12" s="34">
-        <v>120</v>
-      </c>
-      <c r="N12" s="34">
-        <v>3</v>
-      </c>
-      <c r="O12" s="34">
-        <v>4</v>
-      </c>
-      <c r="P12" s="38" t="str">
+      <c r="G12" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="44">
+        <v>10</v>
+      </c>
+      <c r="K12" s="44">
+        <v>10</v>
+      </c>
+      <c r="L12" s="44">
+        <v>1</v>
+      </c>
+      <c r="M12" s="44">
+        <v>120</v>
+      </c>
+      <c r="N12" s="44">
+        <v>3</v>
+      </c>
+      <c r="O12" s="44">
+        <v>4</v>
+      </c>
+      <c r="P12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-16</v>
       </c>
@@ -1968,54 +2042,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-16T00:00:00.000+9</v>
       </c>
-      <c r="T12" s="45" t="str">
+      <c r="T12" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-16T00:00:00.000+9</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1">
       <c r="A13" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="D13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
         <v>44674</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G13" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="34">
-        <v>10</v>
-      </c>
-      <c r="K13" s="34">
-        <v>10</v>
-      </c>
-      <c r="L13" s="34">
-        <v>1</v>
-      </c>
-      <c r="M13" s="34">
-        <v>120</v>
-      </c>
-      <c r="N13" s="34">
-        <v>3</v>
-      </c>
-      <c r="O13" s="34">
-        <v>4</v>
-      </c>
-      <c r="P13" s="38" t="str">
+      <c r="G13" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="44">
+        <v>10</v>
+      </c>
+      <c r="K13" s="44">
+        <v>10</v>
+      </c>
+      <c r="L13" s="44">
+        <v>1</v>
+      </c>
+      <c r="M13" s="44">
+        <v>120</v>
+      </c>
+      <c r="N13" s="44">
+        <v>3</v>
+      </c>
+      <c r="O13" s="44">
+        <v>4</v>
+      </c>
+      <c r="P13" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-23</v>
       </c>
@@ -2031,54 +2105,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-23T00:00:00.000+9</v>
       </c>
-      <c r="T13" s="45" t="str">
+      <c r="T13" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-23T00:00:00.000+9</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1">
       <c r="A14" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="24">
+      <c r="D14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26">
         <v>44681</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G14" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="34">
-        <v>10</v>
-      </c>
-      <c r="K14" s="34">
-        <v>10</v>
-      </c>
-      <c r="L14" s="34">
-        <v>1</v>
-      </c>
-      <c r="M14" s="34">
-        <v>120</v>
-      </c>
-      <c r="N14" s="34">
-        <v>3</v>
-      </c>
-      <c r="O14" s="34">
-        <v>4</v>
-      </c>
-      <c r="P14" s="38" t="str">
+      <c r="G14" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="44">
+        <v>10</v>
+      </c>
+      <c r="K14" s="44">
+        <v>10</v>
+      </c>
+      <c r="L14" s="44">
+        <v>1</v>
+      </c>
+      <c r="M14" s="44">
+        <v>120</v>
+      </c>
+      <c r="N14" s="44">
+        <v>3</v>
+      </c>
+      <c r="O14" s="44">
+        <v>4</v>
+      </c>
+      <c r="P14" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-30</v>
       </c>
@@ -2094,54 +2168,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-30T00:00:00.000+9</v>
       </c>
-      <c r="T14" s="45" t="str">
+      <c r="T14" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="15" spans="1:20" s="1" customFormat="1">
       <c r="A15" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D15" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="27">
         <v>44654</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="36">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="36">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="35">
-        <v>10</v>
-      </c>
-      <c r="K15" s="35">
-        <v>10</v>
-      </c>
-      <c r="L15" s="35">
-        <v>1</v>
-      </c>
-      <c r="M15" s="35">
-        <v>120</v>
-      </c>
-      <c r="N15" s="35">
-        <v>3</v>
-      </c>
-      <c r="O15" s="35">
-        <v>4</v>
-      </c>
-      <c r="P15" s="38" t="str">
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="45">
+        <v>10</v>
+      </c>
+      <c r="K15" s="45">
+        <v>10</v>
+      </c>
+      <c r="L15" s="45">
+        <v>1</v>
+      </c>
+      <c r="M15" s="45">
+        <v>120</v>
+      </c>
+      <c r="N15" s="45">
+        <v>3</v>
+      </c>
+      <c r="O15" s="45">
+        <v>4</v>
+      </c>
+      <c r="P15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-03</v>
       </c>
@@ -2157,54 +2231,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-03T00:00:00.000+9</v>
       </c>
-      <c r="T15" s="45" t="str">
+      <c r="T15" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-03T00:00:00.000+9</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1">
       <c r="A16" s="13">
-        <v>3</v>
-      </c>
-      <c r="B16" s="18">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="D16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="27">
         <v>44661</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="36">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="36">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="35">
-        <v>10</v>
-      </c>
-      <c r="K16" s="35">
-        <v>10</v>
-      </c>
-      <c r="L16" s="35">
-        <v>1</v>
-      </c>
-      <c r="M16" s="35">
-        <v>120</v>
-      </c>
-      <c r="N16" s="35">
-        <v>3</v>
-      </c>
-      <c r="O16" s="35">
-        <v>4</v>
-      </c>
-      <c r="P16" s="38" t="str">
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="45">
+        <v>10</v>
+      </c>
+      <c r="K16" s="45">
+        <v>10</v>
+      </c>
+      <c r="L16" s="45">
+        <v>1</v>
+      </c>
+      <c r="M16" s="45">
+        <v>120</v>
+      </c>
+      <c r="N16" s="45">
+        <v>3</v>
+      </c>
+      <c r="O16" s="45">
+        <v>4</v>
+      </c>
+      <c r="P16" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-10</v>
       </c>
@@ -2220,54 +2294,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-10T00:00:00.000+9</v>
       </c>
-      <c r="T16" s="45" t="str">
+      <c r="T16" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-10T00:00:00.000+9</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="1" customFormat="1">
       <c r="A17" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="D17" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27">
         <v>44668</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="36">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="36">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="35">
-        <v>10</v>
-      </c>
-      <c r="K17" s="35">
-        <v>10</v>
-      </c>
-      <c r="L17" s="35">
-        <v>1</v>
-      </c>
-      <c r="M17" s="35">
-        <v>120</v>
-      </c>
-      <c r="N17" s="35">
-        <v>3</v>
-      </c>
-      <c r="O17" s="35">
-        <v>4</v>
-      </c>
-      <c r="P17" s="38" t="str">
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="45">
+        <v>10</v>
+      </c>
+      <c r="K17" s="45">
+        <v>10</v>
+      </c>
+      <c r="L17" s="45">
+        <v>1</v>
+      </c>
+      <c r="M17" s="45">
+        <v>120</v>
+      </c>
+      <c r="N17" s="45">
+        <v>3</v>
+      </c>
+      <c r="O17" s="45">
+        <v>4</v>
+      </c>
+      <c r="P17" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-17</v>
       </c>
@@ -2283,180 +2357,180 @@
         <f t="shared" si="3"/>
         <v>2022-04-17T00:00:00.000+9</v>
       </c>
-      <c r="T17" s="45" t="str">
+      <c r="T17" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-17T00:00:00.000+9</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="1" customFormat="1" ht="14.25">
       <c r="A18" s="14">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="20">
+        <v>17</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="D18" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="28">
         <v>44675</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="37">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="37">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="36">
-        <v>10</v>
-      </c>
-      <c r="K18" s="36">
-        <v>10</v>
-      </c>
-      <c r="L18" s="36">
-        <v>1</v>
-      </c>
-      <c r="M18" s="36">
-        <v>120</v>
-      </c>
-      <c r="N18" s="36">
-        <v>3</v>
-      </c>
-      <c r="O18" s="36">
-        <v>4</v>
-      </c>
-      <c r="P18" s="39" t="str">
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="46">
+        <v>10</v>
+      </c>
+      <c r="K18" s="46">
+        <v>10</v>
+      </c>
+      <c r="L18" s="46">
+        <v>1</v>
+      </c>
+      <c r="M18" s="46">
+        <v>120</v>
+      </c>
+      <c r="N18" s="46">
+        <v>3</v>
+      </c>
+      <c r="O18" s="46">
+        <v>4</v>
+      </c>
+      <c r="P18" s="52" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-04-24</v>
       </c>
-      <c r="Q18" s="42" t="str">
+      <c r="Q18" s="58" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-24T09:50:00.000+9</v>
       </c>
-      <c r="R18" s="42" t="str">
+      <c r="R18" s="58" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-24T11:50:00.000+9</v>
       </c>
-      <c r="S18" s="42" t="str">
+      <c r="S18" s="58" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-24T00:00:00.000+9</v>
       </c>
-      <c r="T18" s="46" t="str">
+      <c r="T18" s="65" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-24T00:00:00.000+9</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="1" customFormat="1">
-      <c r="A19" s="13">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="12">
+        <v>4</v>
+      </c>
+      <c r="B19" s="19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="D19" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
         <v>44653</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="38">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G19" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="34">
-        <v>10</v>
-      </c>
-      <c r="K19" s="34">
-        <v>10</v>
-      </c>
-      <c r="L19" s="34">
-        <v>1</v>
-      </c>
-      <c r="M19" s="34">
-        <v>120</v>
-      </c>
-      <c r="N19" s="34">
-        <v>3</v>
-      </c>
-      <c r="O19" s="34">
-        <v>4</v>
-      </c>
-      <c r="P19" s="38" t="str">
+      <c r="G19" s="38">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="47">
+        <v>10</v>
+      </c>
+      <c r="K19" s="47">
+        <v>10</v>
+      </c>
+      <c r="L19" s="47">
+        <v>1</v>
+      </c>
+      <c r="M19" s="47">
+        <v>120</v>
+      </c>
+      <c r="N19" s="47">
+        <v>3</v>
+      </c>
+      <c r="O19" s="47">
+        <v>4</v>
+      </c>
+      <c r="P19" s="50" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_東生涯学習センター（モデルナ）/2022-04-02</v>
       </c>
-      <c r="Q19" s="9" t="str">
+      <c r="Q19" s="57" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-02T13:20:00.000+9</v>
       </c>
-      <c r="R19" s="9" t="str">
+      <c r="R19" s="57" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-02T15:20:00.000+9</v>
       </c>
-      <c r="S19" s="9" t="str">
+      <c r="S19" s="57" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-02T00:00:00.000+9</v>
       </c>
-      <c r="T19" s="45" t="str">
+      <c r="T19" s="63" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="20" spans="1:20" s="1" customFormat="1">
       <c r="A20" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="24">
+      <c r="D20" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26">
         <v>44660</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G20" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="34">
-        <v>10</v>
-      </c>
-      <c r="K20" s="34">
-        <v>10</v>
-      </c>
-      <c r="L20" s="34">
-        <v>1</v>
-      </c>
-      <c r="M20" s="34">
-        <v>120</v>
-      </c>
-      <c r="N20" s="34">
-        <v>3</v>
-      </c>
-      <c r="O20" s="34">
-        <v>4</v>
-      </c>
-      <c r="P20" s="38" t="str">
+      <c r="G20" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="44">
+        <v>10</v>
+      </c>
+      <c r="K20" s="44">
+        <v>10</v>
+      </c>
+      <c r="L20" s="44">
+        <v>1</v>
+      </c>
+      <c r="M20" s="44">
+        <v>120</v>
+      </c>
+      <c r="N20" s="44">
+        <v>3</v>
+      </c>
+      <c r="O20" s="44">
+        <v>4</v>
+      </c>
+      <c r="P20" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_東生涯学習センター（モデルナ）/2022-04-09</v>
       </c>
@@ -2472,54 +2546,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-09T00:00:00.000+9</v>
       </c>
-      <c r="T20" s="45" t="str">
+      <c r="T20" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-09T00:00:00.000+9</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="1" customFormat="1">
       <c r="A21" s="13">
-        <v>3</v>
-      </c>
-      <c r="B21" s="18">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="24">
+      <c r="D21" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26">
         <v>44667</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G21" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="34">
-        <v>10</v>
-      </c>
-      <c r="K21" s="34">
-        <v>10</v>
-      </c>
-      <c r="L21" s="34">
-        <v>1</v>
-      </c>
-      <c r="M21" s="34">
-        <v>120</v>
-      </c>
-      <c r="N21" s="34">
-        <v>3</v>
-      </c>
-      <c r="O21" s="34">
-        <v>4</v>
-      </c>
-      <c r="P21" s="38" t="str">
+      <c r="G21" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="44">
+        <v>10</v>
+      </c>
+      <c r="K21" s="44">
+        <v>10</v>
+      </c>
+      <c r="L21" s="44">
+        <v>1</v>
+      </c>
+      <c r="M21" s="44">
+        <v>120</v>
+      </c>
+      <c r="N21" s="44">
+        <v>3</v>
+      </c>
+      <c r="O21" s="44">
+        <v>4</v>
+      </c>
+      <c r="P21" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_東生涯学習センター（モデルナ）/2022-04-16</v>
       </c>
@@ -2535,54 +2609,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-16T00:00:00.000+9</v>
       </c>
-      <c r="T21" s="45" t="str">
+      <c r="T21" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-16T00:00:00.000+9</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="1" customFormat="1">
       <c r="A22" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="24">
+      <c r="D22" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="26">
         <v>44674</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G22" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="34">
-        <v>10</v>
-      </c>
-      <c r="K22" s="34">
-        <v>10</v>
-      </c>
-      <c r="L22" s="34">
-        <v>1</v>
-      </c>
-      <c r="M22" s="34">
-        <v>120</v>
-      </c>
-      <c r="N22" s="34">
-        <v>3</v>
-      </c>
-      <c r="O22" s="34">
-        <v>4</v>
-      </c>
-      <c r="P22" s="38" t="str">
+      <c r="G22" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="44">
+        <v>10</v>
+      </c>
+      <c r="K22" s="44">
+        <v>10</v>
+      </c>
+      <c r="L22" s="44">
+        <v>1</v>
+      </c>
+      <c r="M22" s="44">
+        <v>120</v>
+      </c>
+      <c r="N22" s="44">
+        <v>3</v>
+      </c>
+      <c r="O22" s="44">
+        <v>4</v>
+      </c>
+      <c r="P22" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_東生涯学習センター（モデルナ）/2022-04-23</v>
       </c>
@@ -2598,54 +2672,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-23T00:00:00.000+9</v>
       </c>
-      <c r="T22" s="45" t="str">
+      <c r="T22" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-23T00:00:00.000+9</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="1" customFormat="1">
       <c r="A23" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="24">
+      <c r="D23" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="26">
         <v>44681</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G23" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="34">
-        <v>10</v>
-      </c>
-      <c r="K23" s="34">
-        <v>10</v>
-      </c>
-      <c r="L23" s="34">
-        <v>1</v>
-      </c>
-      <c r="M23" s="34">
-        <v>120</v>
-      </c>
-      <c r="N23" s="34">
-        <v>3</v>
-      </c>
-      <c r="O23" s="34">
-        <v>4</v>
-      </c>
-      <c r="P23" s="38" t="str">
+      <c r="G23" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="44">
+        <v>10</v>
+      </c>
+      <c r="K23" s="44">
+        <v>10</v>
+      </c>
+      <c r="L23" s="44">
+        <v>1</v>
+      </c>
+      <c r="M23" s="44">
+        <v>120</v>
+      </c>
+      <c r="N23" s="44">
+        <v>3</v>
+      </c>
+      <c r="O23" s="44">
+        <v>4</v>
+      </c>
+      <c r="P23" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_東生涯学習センター（モデルナ）/2022-04-30</v>
       </c>
@@ -2661,54 +2735,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-30T00:00:00.000+9</v>
       </c>
-      <c r="T23" s="45" t="str">
+      <c r="T23" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="24" spans="1:20" s="1" customFormat="1">
       <c r="A24" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="25">
+      <c r="D24" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27">
         <v>44654</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="36">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="36">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="35">
-        <v>10</v>
-      </c>
-      <c r="K24" s="35">
-        <v>10</v>
-      </c>
-      <c r="L24" s="35">
-        <v>1</v>
-      </c>
-      <c r="M24" s="35">
-        <v>120</v>
-      </c>
-      <c r="N24" s="35">
-        <v>3</v>
-      </c>
-      <c r="O24" s="35">
-        <v>4</v>
-      </c>
-      <c r="P24" s="38" t="str">
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="45">
+        <v>10</v>
+      </c>
+      <c r="K24" s="45">
+        <v>10</v>
+      </c>
+      <c r="L24" s="45">
+        <v>1</v>
+      </c>
+      <c r="M24" s="45">
+        <v>120</v>
+      </c>
+      <c r="N24" s="45">
+        <v>3</v>
+      </c>
+      <c r="O24" s="45">
+        <v>4</v>
+      </c>
+      <c r="P24" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_東生涯学習センター（モデルナ）/2022-04-03</v>
       </c>
@@ -2724,54 +2798,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-03T00:00:00.000+9</v>
       </c>
-      <c r="T24" s="45" t="str">
+      <c r="T24" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-03T00:00:00.000+9</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="1" customFormat="1">
       <c r="A25" s="13">
-        <v>3</v>
-      </c>
-      <c r="B25" s="18">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="D25" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27">
         <v>44661</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="36">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="36">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="35">
-        <v>10</v>
-      </c>
-      <c r="K25" s="35">
-        <v>10</v>
-      </c>
-      <c r="L25" s="35">
-        <v>1</v>
-      </c>
-      <c r="M25" s="35">
-        <v>120</v>
-      </c>
-      <c r="N25" s="35">
-        <v>3</v>
-      </c>
-      <c r="O25" s="35">
-        <v>4</v>
-      </c>
-      <c r="P25" s="38" t="str">
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="45">
+        <v>10</v>
+      </c>
+      <c r="K25" s="45">
+        <v>10</v>
+      </c>
+      <c r="L25" s="45">
+        <v>1</v>
+      </c>
+      <c r="M25" s="45">
+        <v>120</v>
+      </c>
+      <c r="N25" s="45">
+        <v>3</v>
+      </c>
+      <c r="O25" s="45">
+        <v>4</v>
+      </c>
+      <c r="P25" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_東生涯学習センター（モデルナ）/2022-04-10</v>
       </c>
@@ -2787,54 +2861,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-10T00:00:00.000+9</v>
       </c>
-      <c r="T25" s="45" t="str">
+      <c r="T25" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-10T00:00:00.000+9</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="1" customFormat="1">
       <c r="A26" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="25">
+      <c r="D26" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27">
         <v>44668</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="36">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="36">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="35">
-        <v>10</v>
-      </c>
-      <c r="K26" s="35">
-        <v>10</v>
-      </c>
-      <c r="L26" s="35">
-        <v>1</v>
-      </c>
-      <c r="M26" s="35">
-        <v>120</v>
-      </c>
-      <c r="N26" s="35">
-        <v>3</v>
-      </c>
-      <c r="O26" s="35">
-        <v>4</v>
-      </c>
-      <c r="P26" s="38" t="str">
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="45">
+        <v>10</v>
+      </c>
+      <c r="K26" s="45">
+        <v>10</v>
+      </c>
+      <c r="L26" s="45">
+        <v>1</v>
+      </c>
+      <c r="M26" s="45">
+        <v>120</v>
+      </c>
+      <c r="N26" s="45">
+        <v>3</v>
+      </c>
+      <c r="O26" s="45">
+        <v>4</v>
+      </c>
+      <c r="P26" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_東生涯学習センター（モデルナ）/2022-04-17</v>
       </c>
@@ -2850,180 +2924,180 @@
         <f t="shared" si="3"/>
         <v>2022-04-17T00:00:00.000+9</v>
       </c>
-      <c r="T26" s="45" t="str">
+      <c r="T26" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-17T00:00:00.000+9</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="1" customFormat="1" ht="14.25">
       <c r="A27" s="14">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B27" s="20">
+        <v>26</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28">
         <v>44675</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="37">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="37">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="36">
-        <v>10</v>
-      </c>
-      <c r="K27" s="36">
-        <v>10</v>
-      </c>
-      <c r="L27" s="36">
-        <v>1</v>
-      </c>
-      <c r="M27" s="36">
-        <v>120</v>
-      </c>
-      <c r="N27" s="36">
-        <v>3</v>
-      </c>
-      <c r="O27" s="36">
-        <v>4</v>
-      </c>
-      <c r="P27" s="39" t="str">
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="46">
+        <v>10</v>
+      </c>
+      <c r="K27" s="46">
+        <v>10</v>
+      </c>
+      <c r="L27" s="46">
+        <v>1</v>
+      </c>
+      <c r="M27" s="46">
+        <v>120</v>
+      </c>
+      <c r="N27" s="46">
+        <v>3</v>
+      </c>
+      <c r="O27" s="46">
+        <v>4</v>
+      </c>
+      <c r="P27" s="52" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_東生涯学習センター（モデルナ）/2022-04-24</v>
       </c>
-      <c r="Q27" s="42" t="str">
+      <c r="Q27" s="58" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-24T09:50:00.000+9</v>
       </c>
-      <c r="R27" s="42" t="str">
+      <c r="R27" s="58" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-24T11:50:00.000+9</v>
       </c>
-      <c r="S27" s="42" t="str">
+      <c r="S27" s="58" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-24T00:00:00.000+9</v>
       </c>
-      <c r="T27" s="46" t="str">
+      <c r="T27" s="65" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-24T00:00:00.000+9</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="1" customFormat="1">
-      <c r="A28" s="13">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="12">
+        <v>4</v>
+      </c>
+      <c r="B28" s="19">
+        <v>27</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
+      <c r="D28" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29">
         <v>44653</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="38">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G28" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="34">
-        <v>10</v>
-      </c>
-      <c r="K28" s="34">
-        <v>10</v>
-      </c>
-      <c r="L28" s="34">
-        <v>1</v>
-      </c>
-      <c r="M28" s="34">
-        <v>120</v>
-      </c>
-      <c r="N28" s="34">
-        <v>3</v>
-      </c>
-      <c r="O28" s="34">
-        <v>4</v>
-      </c>
-      <c r="P28" s="38" t="str">
+      <c r="G28" s="38">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="47">
+        <v>10</v>
+      </c>
+      <c r="K28" s="47">
+        <v>10</v>
+      </c>
+      <c r="L28" s="47">
+        <v>1</v>
+      </c>
+      <c r="M28" s="47">
+        <v>120</v>
+      </c>
+      <c r="N28" s="47">
+        <v>3</v>
+      </c>
+      <c r="O28" s="47">
+        <v>4</v>
+      </c>
+      <c r="P28" s="50" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_西南生涯学習センター（モデルナ）/2022-04-02</v>
       </c>
-      <c r="Q28" s="9" t="str">
+      <c r="Q28" s="57" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-02T13:20:00.000+9</v>
       </c>
-      <c r="R28" s="9" t="str">
+      <c r="R28" s="57" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-02T15:20:00.000+9</v>
       </c>
-      <c r="S28" s="9" t="str">
+      <c r="S28" s="57" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-02T00:00:00.000+9</v>
       </c>
-      <c r="T28" s="45" t="str">
+      <c r="T28" s="63" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="29" spans="1:20" s="1" customFormat="1">
       <c r="A29" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
+      <c r="D29" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26">
         <v>44660</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G29" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="34">
-        <v>10</v>
-      </c>
-      <c r="K29" s="34">
-        <v>10</v>
-      </c>
-      <c r="L29" s="34">
-        <v>1</v>
-      </c>
-      <c r="M29" s="34">
-        <v>120</v>
-      </c>
-      <c r="N29" s="34">
-        <v>3</v>
-      </c>
-      <c r="O29" s="34">
-        <v>4</v>
-      </c>
-      <c r="P29" s="38" t="str">
+      <c r="G29" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="44">
+        <v>10</v>
+      </c>
+      <c r="K29" s="44">
+        <v>10</v>
+      </c>
+      <c r="L29" s="44">
+        <v>1</v>
+      </c>
+      <c r="M29" s="44">
+        <v>120</v>
+      </c>
+      <c r="N29" s="44">
+        <v>3</v>
+      </c>
+      <c r="O29" s="44">
+        <v>4</v>
+      </c>
+      <c r="P29" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_西南生涯学習センター（モデルナ）/2022-04-09</v>
       </c>
@@ -3039,54 +3113,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-09T00:00:00.000+9</v>
       </c>
-      <c r="T29" s="45" t="str">
+      <c r="T29" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-09T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="30" spans="1:20" s="1" customFormat="1">
       <c r="A30" s="13">
-        <v>3</v>
-      </c>
-      <c r="B30" s="18">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
+      <c r="D30" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="26">
         <v>44667</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G30" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="34">
-        <v>10</v>
-      </c>
-      <c r="K30" s="34">
-        <v>10</v>
-      </c>
-      <c r="L30" s="34">
-        <v>1</v>
-      </c>
-      <c r="M30" s="34">
-        <v>120</v>
-      </c>
-      <c r="N30" s="34">
-        <v>3</v>
-      </c>
-      <c r="O30" s="34">
-        <v>4</v>
-      </c>
-      <c r="P30" s="38" t="str">
+      <c r="G30" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="44">
+        <v>10</v>
+      </c>
+      <c r="K30" s="44">
+        <v>10</v>
+      </c>
+      <c r="L30" s="44">
+        <v>1</v>
+      </c>
+      <c r="M30" s="44">
+        <v>120</v>
+      </c>
+      <c r="N30" s="44">
+        <v>3</v>
+      </c>
+      <c r="O30" s="44">
+        <v>4</v>
+      </c>
+      <c r="P30" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_西南生涯学習センター（モデルナ）/2022-04-16</v>
       </c>
@@ -3102,54 +3176,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-16T00:00:00.000+9</v>
       </c>
-      <c r="T30" s="45" t="str">
+      <c r="T30" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-16T00:00:00.000+9</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="1" customFormat="1">
       <c r="A31" s="13">
-        <v>3</v>
-      </c>
-      <c r="B31" s="18">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="B31" s="3">
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="24">
+      <c r="D31" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26">
         <v>44674</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G31" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="34">
-        <v>10</v>
-      </c>
-      <c r="K31" s="34">
-        <v>10</v>
-      </c>
-      <c r="L31" s="34">
-        <v>1</v>
-      </c>
-      <c r="M31" s="34">
-        <v>120</v>
-      </c>
-      <c r="N31" s="34">
-        <v>3</v>
-      </c>
-      <c r="O31" s="34">
-        <v>4</v>
-      </c>
-      <c r="P31" s="38" t="str">
+      <c r="G31" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="44">
+        <v>10</v>
+      </c>
+      <c r="K31" s="44">
+        <v>10</v>
+      </c>
+      <c r="L31" s="44">
+        <v>1</v>
+      </c>
+      <c r="M31" s="44">
+        <v>120</v>
+      </c>
+      <c r="N31" s="44">
+        <v>3</v>
+      </c>
+      <c r="O31" s="44">
+        <v>4</v>
+      </c>
+      <c r="P31" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_西南生涯学習センター（モデルナ）/2022-04-23</v>
       </c>
@@ -3165,54 +3239,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-23T00:00:00.000+9</v>
       </c>
-      <c r="T31" s="45" t="str">
+      <c r="T31" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-23T00:00:00.000+9</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="1" customFormat="1">
       <c r="A32" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="24">
+      <c r="D32" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26">
         <v>44681</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="35">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G32" s="29">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="34">
-        <v>10</v>
-      </c>
-      <c r="K32" s="34">
-        <v>10</v>
-      </c>
-      <c r="L32" s="34">
-        <v>1</v>
-      </c>
-      <c r="M32" s="34">
-        <v>120</v>
-      </c>
-      <c r="N32" s="34">
-        <v>3</v>
-      </c>
-      <c r="O32" s="34">
-        <v>4</v>
-      </c>
-      <c r="P32" s="38" t="str">
+      <c r="G32" s="35">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="44">
+        <v>10</v>
+      </c>
+      <c r="K32" s="44">
+        <v>10</v>
+      </c>
+      <c r="L32" s="44">
+        <v>1</v>
+      </c>
+      <c r="M32" s="44">
+        <v>120</v>
+      </c>
+      <c r="N32" s="44">
+        <v>3</v>
+      </c>
+      <c r="O32" s="44">
+        <v>4</v>
+      </c>
+      <c r="P32" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_西南生涯学習センター（モデルナ）/2022-04-30</v>
       </c>
@@ -3228,54 +3302,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-30T00:00:00.000+9</v>
       </c>
-      <c r="T32" s="45" t="str">
+      <c r="T32" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="33" spans="1:20" s="1" customFormat="1">
       <c r="A33" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" s="3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="25">
+      <c r="D33" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="27">
         <v>44654</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="36">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="36">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="35">
-        <v>10</v>
-      </c>
-      <c r="K33" s="35">
-        <v>10</v>
-      </c>
-      <c r="L33" s="35">
-        <v>1</v>
-      </c>
-      <c r="M33" s="35">
-        <v>120</v>
-      </c>
-      <c r="N33" s="35">
-        <v>3</v>
-      </c>
-      <c r="O33" s="35">
-        <v>4</v>
-      </c>
-      <c r="P33" s="38" t="str">
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="45">
+        <v>10</v>
+      </c>
+      <c r="K33" s="45">
+        <v>10</v>
+      </c>
+      <c r="L33" s="45">
+        <v>1</v>
+      </c>
+      <c r="M33" s="45">
+        <v>120</v>
+      </c>
+      <c r="N33" s="45">
+        <v>3</v>
+      </c>
+      <c r="O33" s="45">
+        <v>4</v>
+      </c>
+      <c r="P33" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_西南生涯学習センター（モデルナ）/2022-04-03</v>
       </c>
@@ -3291,54 +3365,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-03T00:00:00.000+9</v>
       </c>
-      <c r="T33" s="45" t="str">
+      <c r="T33" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-03T00:00:00.000+9</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="1" customFormat="1">
       <c r="A34" s="13">
-        <v>3</v>
-      </c>
-      <c r="B34" s="18">
-        <v>52</v>
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="25">
+      <c r="D34" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="27">
         <v>44661</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="36">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="36">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="35">
-        <v>10</v>
-      </c>
-      <c r="K34" s="35">
-        <v>10</v>
-      </c>
-      <c r="L34" s="35">
-        <v>1</v>
-      </c>
-      <c r="M34" s="35">
-        <v>120</v>
-      </c>
-      <c r="N34" s="35">
-        <v>3</v>
-      </c>
-      <c r="O34" s="35">
-        <v>4</v>
-      </c>
-      <c r="P34" s="38" t="str">
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="45">
+        <v>10</v>
+      </c>
+      <c r="K34" s="45">
+        <v>10</v>
+      </c>
+      <c r="L34" s="45">
+        <v>1</v>
+      </c>
+      <c r="M34" s="45">
+        <v>120</v>
+      </c>
+      <c r="N34" s="45">
+        <v>3</v>
+      </c>
+      <c r="O34" s="45">
+        <v>4</v>
+      </c>
+      <c r="P34" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_西南生涯学習センター（モデルナ）/2022-04-10</v>
       </c>
@@ -3354,54 +3428,54 @@
         <f t="shared" si="3"/>
         <v>2022-04-10T00:00:00.000+9</v>
       </c>
-      <c r="T34" s="45" t="str">
+      <c r="T34" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-10T00:00:00.000+9</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="1" customFormat="1">
       <c r="A35" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="25">
+      <c r="D35" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="27">
         <v>44668</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="36">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="36">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="35">
-        <v>10</v>
-      </c>
-      <c r="K35" s="35">
-        <v>10</v>
-      </c>
-      <c r="L35" s="35">
-        <v>1</v>
-      </c>
-      <c r="M35" s="35">
-        <v>120</v>
-      </c>
-      <c r="N35" s="35">
-        <v>3</v>
-      </c>
-      <c r="O35" s="35">
-        <v>4</v>
-      </c>
-      <c r="P35" s="38" t="str">
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="45">
+        <v>10</v>
+      </c>
+      <c r="K35" s="45">
+        <v>10</v>
+      </c>
+      <c r="L35" s="45">
+        <v>1</v>
+      </c>
+      <c r="M35" s="45">
+        <v>120</v>
+      </c>
+      <c r="N35" s="45">
+        <v>3</v>
+      </c>
+      <c r="O35" s="45">
+        <v>4</v>
+      </c>
+      <c r="P35" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_西南生涯学習センター（モデルナ）/2022-04-17</v>
       </c>
@@ -3417,188 +3491,188 @@
         <f t="shared" si="3"/>
         <v>2022-04-17T00:00:00.000+9</v>
       </c>
-      <c r="T35" s="45" t="str">
+      <c r="T35" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-17T00:00:00.000+9</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="1" customFormat="1" ht="14.25">
       <c r="A36" s="14">
-        <v>3</v>
-      </c>
-      <c r="B36" s="3">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="B36" s="20">
+        <v>35</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="26">
+      <c r="D36" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="28">
         <v>44675</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="37">
         <v>0.40972222222222199</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="37">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="36">
-        <v>10</v>
-      </c>
-      <c r="K36" s="36">
-        <v>10</v>
-      </c>
-      <c r="L36" s="36">
-        <v>1</v>
-      </c>
-      <c r="M36" s="36">
-        <v>120</v>
-      </c>
-      <c r="N36" s="36">
-        <v>3</v>
-      </c>
-      <c r="O36" s="36">
-        <v>4</v>
-      </c>
-      <c r="P36" s="39" t="str">
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="46">
+        <v>10</v>
+      </c>
+      <c r="K36" s="46">
+        <v>10</v>
+      </c>
+      <c r="L36" s="46">
+        <v>1</v>
+      </c>
+      <c r="M36" s="46">
+        <v>120</v>
+      </c>
+      <c r="N36" s="46">
+        <v>3</v>
+      </c>
+      <c r="O36" s="46">
+        <v>4</v>
+      </c>
+      <c r="P36" s="52" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_西南生涯学習センター（モデルナ）/2022-04-24</v>
       </c>
-      <c r="Q36" s="42" t="str">
+      <c r="Q36" s="58" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-24T09:50:00.000+9</v>
       </c>
-      <c r="R36" s="42" t="str">
+      <c r="R36" s="58" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-24T11:50:00.000+9</v>
       </c>
-      <c r="S36" s="42" t="str">
+      <c r="S36" s="58" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-24T00:00:00.000+9</v>
       </c>
-      <c r="T36" s="46" t="str">
+      <c r="T36" s="65" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-24T00:00:00.000+9</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="1" customFormat="1">
-      <c r="A37" s="1">
-        <v>3</v>
-      </c>
-      <c r="B37" s="18">
-        <v>55</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="A37" s="15">
+        <v>4</v>
+      </c>
+      <c r="B37" s="19">
+        <v>36</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="24">
+      <c r="D37" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="29">
         <v>44646</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="38">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="38">
         <v>0.5625</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="38">
         <v>0.55555555555555558</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="38">
         <v>0.5625</v>
       </c>
-      <c r="J37" s="34">
-        <v>10</v>
-      </c>
-      <c r="K37" s="34">
+      <c r="J37" s="47">
+        <v>10</v>
+      </c>
+      <c r="K37" s="47">
         <v>0</v>
       </c>
-      <c r="L37" s="34">
+      <c r="L37" s="47">
         <v>0</v>
       </c>
-      <c r="M37" s="34">
-        <v>120</v>
-      </c>
-      <c r="N37" s="34">
-        <v>3</v>
-      </c>
-      <c r="O37" s="34">
-        <v>4</v>
-      </c>
-      <c r="P37" s="38" t="str">
+      <c r="M37" s="47">
+        <v>120</v>
+      </c>
+      <c r="N37" s="47">
+        <v>3</v>
+      </c>
+      <c r="O37" s="47">
+        <v>4</v>
+      </c>
+      <c r="P37" s="50" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_総合保健福祉センター（モデルナ）/2022-03-26</v>
       </c>
-      <c r="Q37" s="9" t="str">
+      <c r="Q37" s="57" t="str">
         <f t="shared" si="1"/>
         <v>2022-03-26T13:20:00.000+9</v>
       </c>
-      <c r="R37" s="9" t="str">
+      <c r="R37" s="57" t="str">
         <f t="shared" si="2"/>
         <v>2022-03-26T13:30:00.000+9</v>
       </c>
-      <c r="S37" s="9" t="str">
+      <c r="S37" s="57" t="str">
         <f t="shared" si="3"/>
         <v>2022-03-26T13:20:00.000+9</v>
       </c>
-      <c r="T37" s="9" t="str">
+      <c r="T37" s="63" t="str">
         <f t="shared" si="4"/>
         <v>2022-03-26T13:30:00.000+9</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="1" customFormat="1">
-      <c r="A38" s="1">
-        <v>3</v>
+      <c r="A38" s="16">
+        <v>4</v>
       </c>
       <c r="B38" s="3">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="24">
+      <c r="D38" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="26">
         <v>44646</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="35">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="35">
         <v>0.5625</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="35">
         <v>0.55555555555555558</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="35">
         <v>0.5625</v>
       </c>
-      <c r="J38" s="34">
-        <v>10</v>
-      </c>
-      <c r="K38" s="34">
+      <c r="J38" s="44">
+        <v>10</v>
+      </c>
+      <c r="K38" s="44">
         <v>0</v>
       </c>
-      <c r="L38" s="34">
+      <c r="L38" s="44">
         <v>0</v>
       </c>
-      <c r="M38" s="34">
-        <v>120</v>
-      </c>
-      <c r="N38" s="34">
-        <v>3</v>
-      </c>
-      <c r="O38" s="34">
-        <v>4</v>
-      </c>
-      <c r="P38" s="38" t="str">
+      <c r="M38" s="44">
+        <v>120</v>
+      </c>
+      <c r="N38" s="44">
+        <v>3</v>
+      </c>
+      <c r="O38" s="44">
+        <v>4</v>
+      </c>
+      <c r="P38" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_東生涯学習センター（モデルナ）/2022-03-26</v>
       </c>
@@ -3614,897 +3688,897 @@
         <f t="shared" si="3"/>
         <v>2022-03-26T13:20:00.000+9</v>
       </c>
-      <c r="T38" s="9" t="str">
+      <c r="T38" s="64" t="str">
         <f t="shared" si="4"/>
         <v>2022-03-26T13:30:00.000+9</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="1" customFormat="1" ht="14.25">
-      <c r="A39" s="1">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3">
-        <v>57</v>
+      <c r="A39" s="17">
+        <v>4</v>
+      </c>
+      <c r="B39" s="20">
+        <v>38</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" s="24">
+      <c r="D39" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="30">
         <v>44646</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="39">
         <v>0.55555555555555558</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="39">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="39">
         <v>0.55555555555555558</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="39">
         <v>0.5625</v>
       </c>
-      <c r="J39" s="34">
-        <v>10</v>
-      </c>
-      <c r="K39" s="34">
+      <c r="J39" s="48">
+        <v>10</v>
+      </c>
+      <c r="K39" s="48">
         <v>0</v>
       </c>
-      <c r="L39" s="34">
+      <c r="L39" s="48">
         <v>0</v>
       </c>
-      <c r="M39" s="34">
-        <v>120</v>
-      </c>
-      <c r="N39" s="34">
-        <v>3</v>
-      </c>
-      <c r="O39" s="34">
-        <v>4</v>
-      </c>
-      <c r="P39" s="38" t="str">
+      <c r="M39" s="48">
+        <v>120</v>
+      </c>
+      <c r="N39" s="48">
+        <v>3</v>
+      </c>
+      <c r="O39" s="48">
+        <v>4</v>
+      </c>
+      <c r="P39" s="52" t="str">
         <f t="shared" si="0"/>
         <v>4/2～4/30_西南生涯学習センター（モデルナ）/2022-03-26</v>
       </c>
-      <c r="Q39" s="9" t="str">
+      <c r="Q39" s="58" t="str">
         <f t="shared" si="1"/>
         <v>2022-03-26T13:20:00.000+9</v>
       </c>
-      <c r="R39" s="9" t="str">
+      <c r="R39" s="58" t="str">
         <f t="shared" si="2"/>
         <v>2022-03-26T13:30:00.000+9</v>
       </c>
-      <c r="S39" s="9" t="str">
+      <c r="S39" s="58" t="str">
         <f t="shared" si="3"/>
         <v>2022-03-26T13:20:00.000+9</v>
       </c>
-      <c r="T39" s="9" t="str">
+      <c r="T39" s="65" t="str">
         <f t="shared" si="4"/>
         <v>2022-03-26T13:30:00.000+9</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="1" customFormat="1">
       <c r="A40" s="15">
-        <v>3</v>
-      </c>
-      <c r="B40" s="18">
-        <v>58</v>
-      </c>
-      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="19">
+        <v>39</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="23">
+      <c r="D40" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="24">
         <v>44652</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="33">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G40" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="33">
+      <c r="G40" s="33">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="42">
         <v>30</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="42">
         <v>20</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="42">
         <v>2</v>
       </c>
-      <c r="M40" s="33">
-        <v>120</v>
-      </c>
-      <c r="N40" s="33">
-        <v>3</v>
-      </c>
-      <c r="O40" s="33">
-        <v>4</v>
-      </c>
-      <c r="P40" s="40" t="str">
+      <c r="M40" s="42">
+        <v>120</v>
+      </c>
+      <c r="N40" s="42">
+        <v>2</v>
+      </c>
+      <c r="O40" s="42">
+        <v>3</v>
+      </c>
+      <c r="P40" s="53" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-01</v>
       </c>
-      <c r="Q40" s="43" t="str">
+      <c r="Q40" s="59" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-01T14:00:00.000+9</v>
       </c>
-      <c r="R40" s="43" t="str">
+      <c r="R40" s="59" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-01T15:30:00.000+9</v>
       </c>
-      <c r="S40" s="43" t="str">
+      <c r="S40" s="59" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-01T00:00:00.000+9</v>
       </c>
-      <c r="T40" s="47" t="str">
+      <c r="T40" s="66" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-01T00:00:00.000+9</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="1" customFormat="1">
       <c r="A41" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" s="3">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="23">
+      <c r="D41" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="25">
         <v>44656</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="34">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G41" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="33">
+      <c r="G41" s="34">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="43">
         <v>30</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="43">
         <v>20</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="43">
         <v>2</v>
       </c>
-      <c r="M41" s="33">
-        <v>120</v>
-      </c>
-      <c r="N41" s="33">
-        <v>3</v>
-      </c>
-      <c r="O41" s="33">
-        <v>4</v>
-      </c>
-      <c r="P41" s="40" t="str">
+      <c r="M41" s="43">
+        <v>120</v>
+      </c>
+      <c r="N41" s="43">
+        <v>3</v>
+      </c>
+      <c r="O41" s="43">
+        <v>4</v>
+      </c>
+      <c r="P41" s="54" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-05</v>
       </c>
-      <c r="Q41" s="43" t="str">
+      <c r="Q41" s="60" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-05T14:00:00.000+9</v>
       </c>
-      <c r="R41" s="43" t="str">
+      <c r="R41" s="60" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-05T15:30:00.000+9</v>
       </c>
-      <c r="S41" s="43" t="str">
+      <c r="S41" s="60" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-05T00:00:00.000+9</v>
       </c>
-      <c r="T41" s="47" t="str">
+      <c r="T41" s="67" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-05T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="1" customFormat="1" ht="14.25">
-      <c r="A42" s="17">
-        <v>3</v>
+    <row r="42" spans="1:20" s="1" customFormat="1">
+      <c r="A42" s="16">
+        <v>4</v>
       </c>
       <c r="B42" s="3">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="23">
+      <c r="D42" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="25">
         <v>44657</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="34">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G42" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="33">
+      <c r="G42" s="34">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="43">
         <v>30</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="43">
         <v>20</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="43">
         <v>2</v>
       </c>
-      <c r="M42" s="33">
-        <v>120</v>
-      </c>
-      <c r="N42" s="33">
-        <v>3</v>
-      </c>
-      <c r="O42" s="33">
-        <v>4</v>
-      </c>
-      <c r="P42" s="40" t="str">
+      <c r="M42" s="43">
+        <v>120</v>
+      </c>
+      <c r="N42" s="43">
+        <v>3</v>
+      </c>
+      <c r="O42" s="43">
+        <v>4</v>
+      </c>
+      <c r="P42" s="54" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-06</v>
       </c>
-      <c r="Q42" s="43" t="str">
+      <c r="Q42" s="60" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-06T14:00:00.000+9</v>
       </c>
-      <c r="R42" s="43" t="str">
+      <c r="R42" s="60" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-06T15:30:00.000+9</v>
       </c>
-      <c r="S42" s="43" t="str">
+      <c r="S42" s="60" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-06T00:00:00.000+9</v>
       </c>
-      <c r="T42" s="47" t="str">
+      <c r="T42" s="67" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-06T00:00:00.000+9</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="1" customFormat="1">
-      <c r="A43" s="15">
-        <v>3</v>
-      </c>
-      <c r="B43" s="18">
-        <v>61</v>
+      <c r="A43" s="16">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3">
+        <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="23">
+      <c r="D43" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="25">
         <v>44659</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="34">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G43" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="33">
+      <c r="G43" s="34">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="43">
         <v>30</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="43">
         <v>20</v>
       </c>
-      <c r="L43" s="33">
+      <c r="L43" s="43">
         <v>2</v>
       </c>
-      <c r="M43" s="33">
-        <v>120</v>
-      </c>
-      <c r="N43" s="33">
-        <v>3</v>
-      </c>
-      <c r="O43" s="33">
-        <v>4</v>
-      </c>
-      <c r="P43" s="40" t="str">
+      <c r="M43" s="43">
+        <v>120</v>
+      </c>
+      <c r="N43" s="43">
+        <v>3</v>
+      </c>
+      <c r="O43" s="43">
+        <v>4</v>
+      </c>
+      <c r="P43" s="54" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-08</v>
       </c>
-      <c r="Q43" s="43" t="str">
+      <c r="Q43" s="60" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-08T14:00:00.000+9</v>
       </c>
-      <c r="R43" s="43" t="str">
+      <c r="R43" s="60" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-08T15:30:00.000+9</v>
       </c>
-      <c r="S43" s="43" t="str">
+      <c r="S43" s="60" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-08T00:00:00.000+9</v>
       </c>
-      <c r="T43" s="47" t="str">
+      <c r="T43" s="67" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-08T00:00:00.000+9</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="1" customFormat="1">
       <c r="A44" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" s="3">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="23">
+      <c r="D44" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="25">
         <v>44663</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="34">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G44" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="33">
+      <c r="G44" s="34">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="43">
         <v>30</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K44" s="43">
         <v>20</v>
       </c>
-      <c r="L44" s="33">
+      <c r="L44" s="43">
         <v>2</v>
       </c>
-      <c r="M44" s="33">
-        <v>120</v>
-      </c>
-      <c r="N44" s="33">
-        <v>3</v>
-      </c>
-      <c r="O44" s="33">
-        <v>4</v>
-      </c>
-      <c r="P44" s="40" t="str">
+      <c r="M44" s="43">
+        <v>120</v>
+      </c>
+      <c r="N44" s="43">
+        <v>3</v>
+      </c>
+      <c r="O44" s="43">
+        <v>4</v>
+      </c>
+      <c r="P44" s="54" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-12</v>
       </c>
-      <c r="Q44" s="43" t="str">
+      <c r="Q44" s="60" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-12T14:00:00.000+9</v>
       </c>
-      <c r="R44" s="43" t="str">
+      <c r="R44" s="60" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-12T15:30:00.000+9</v>
       </c>
-      <c r="S44" s="43" t="str">
+      <c r="S44" s="60" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-12T00:00:00.000+9</v>
       </c>
-      <c r="T44" s="47" t="str">
+      <c r="T44" s="67" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-12T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="1" customFormat="1" ht="14.25">
-      <c r="A45" s="17">
-        <v>3</v>
+    <row r="45" spans="1:20" s="1" customFormat="1">
+      <c r="A45" s="16">
+        <v>4</v>
       </c>
       <c r="B45" s="3">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="23">
+      <c r="D45" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="25">
         <v>44664</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="34">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G45" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="33">
+      <c r="G45" s="34">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="43">
         <v>30</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="43">
         <v>20</v>
       </c>
-      <c r="L45" s="33">
+      <c r="L45" s="43">
         <v>2</v>
       </c>
-      <c r="M45" s="33">
-        <v>120</v>
-      </c>
-      <c r="N45" s="33">
-        <v>3</v>
-      </c>
-      <c r="O45" s="33">
-        <v>4</v>
-      </c>
-      <c r="P45" s="40" t="str">
+      <c r="M45" s="43">
+        <v>120</v>
+      </c>
+      <c r="N45" s="43">
+        <v>3</v>
+      </c>
+      <c r="O45" s="43">
+        <v>4</v>
+      </c>
+      <c r="P45" s="54" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-13</v>
       </c>
-      <c r="Q45" s="43" t="str">
+      <c r="Q45" s="60" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-13T14:00:00.000+9</v>
       </c>
-      <c r="R45" s="43" t="str">
+      <c r="R45" s="60" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-13T15:30:00.000+9</v>
       </c>
-      <c r="S45" s="43" t="str">
+      <c r="S45" s="60" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-13T00:00:00.000+9</v>
       </c>
-      <c r="T45" s="47" t="str">
+      <c r="T45" s="67" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-13T00:00:00.000+9</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="1" customFormat="1">
-      <c r="A46" s="15">
-        <v>3</v>
-      </c>
-      <c r="B46" s="18">
-        <v>64</v>
+      <c r="A46" s="16">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="23">
+      <c r="D46" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="25">
         <v>44666</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="34">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G46" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="33">
+      <c r="G46" s="34">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="43">
         <v>30</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="43">
         <v>20</v>
       </c>
-      <c r="L46" s="33">
+      <c r="L46" s="43">
         <v>2</v>
       </c>
-      <c r="M46" s="33">
-        <v>120</v>
-      </c>
-      <c r="N46" s="33">
-        <v>3</v>
-      </c>
-      <c r="O46" s="33">
-        <v>4</v>
-      </c>
-      <c r="P46" s="40" t="str">
+      <c r="M46" s="43">
+        <v>120</v>
+      </c>
+      <c r="N46" s="43">
+        <v>3</v>
+      </c>
+      <c r="O46" s="43">
+        <v>4</v>
+      </c>
+      <c r="P46" s="54" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-15</v>
       </c>
-      <c r="Q46" s="43" t="str">
+      <c r="Q46" s="60" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-15T14:00:00.000+9</v>
       </c>
-      <c r="R46" s="43" t="str">
+      <c r="R46" s="60" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-15T15:30:00.000+9</v>
       </c>
-      <c r="S46" s="43" t="str">
+      <c r="S46" s="60" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-15T00:00:00.000+9</v>
       </c>
-      <c r="T46" s="47" t="str">
+      <c r="T46" s="67" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-15T00:00:00.000+9</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="1" customFormat="1">
       <c r="A47" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" s="3">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="23">
+      <c r="D47" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="25">
         <v>44670</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="34">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G47" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="33">
+      <c r="G47" s="34">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="43">
         <v>30</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="43">
         <v>20</v>
       </c>
-      <c r="L47" s="33">
+      <c r="L47" s="43">
         <v>2</v>
       </c>
-      <c r="M47" s="33">
-        <v>120</v>
-      </c>
-      <c r="N47" s="33">
-        <v>3</v>
-      </c>
-      <c r="O47" s="33">
-        <v>4</v>
-      </c>
-      <c r="P47" s="40" t="str">
+      <c r="M47" s="43">
+        <v>120</v>
+      </c>
+      <c r="N47" s="43">
+        <v>3</v>
+      </c>
+      <c r="O47" s="43">
+        <v>4</v>
+      </c>
+      <c r="P47" s="54" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-19</v>
       </c>
-      <c r="Q47" s="43" t="str">
+      <c r="Q47" s="60" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-19T14:00:00.000+9</v>
       </c>
-      <c r="R47" s="43" t="str">
+      <c r="R47" s="60" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-19T15:30:00.000+9</v>
       </c>
-      <c r="S47" s="43" t="str">
+      <c r="S47" s="60" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-19T00:00:00.000+9</v>
       </c>
-      <c r="T47" s="47" t="str">
+      <c r="T47" s="67" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-19T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="1" customFormat="1" ht="14.25">
-      <c r="A48" s="17">
-        <v>3</v>
+    <row r="48" spans="1:20" s="1" customFormat="1">
+      <c r="A48" s="16">
+        <v>4</v>
       </c>
       <c r="B48" s="3">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="23">
+      <c r="D48" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="25">
         <v>44671</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="34">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G48" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="33">
+      <c r="G48" s="34">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="43">
         <v>30</v>
       </c>
-      <c r="K48" s="33">
+      <c r="K48" s="43">
         <v>20</v>
       </c>
-      <c r="L48" s="33">
+      <c r="L48" s="43">
         <v>2</v>
       </c>
-      <c r="M48" s="33">
-        <v>120</v>
-      </c>
-      <c r="N48" s="33">
-        <v>3</v>
-      </c>
-      <c r="O48" s="33">
-        <v>4</v>
-      </c>
-      <c r="P48" s="40" t="str">
+      <c r="M48" s="43">
+        <v>120</v>
+      </c>
+      <c r="N48" s="43">
+        <v>3</v>
+      </c>
+      <c r="O48" s="43">
+        <v>4</v>
+      </c>
+      <c r="P48" s="54" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-20</v>
       </c>
-      <c r="Q48" s="43" t="str">
+      <c r="Q48" s="60" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-20T14:00:00.000+9</v>
       </c>
-      <c r="R48" s="43" t="str">
+      <c r="R48" s="60" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-20T15:30:00.000+9</v>
       </c>
-      <c r="S48" s="43" t="str">
+      <c r="S48" s="60" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-20T00:00:00.000+9</v>
       </c>
-      <c r="T48" s="47" t="str">
+      <c r="T48" s="67" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-20T00:00:00.000+9</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="1" customFormat="1">
-      <c r="A49" s="15">
-        <v>3</v>
-      </c>
-      <c r="B49" s="18">
-        <v>67</v>
+      <c r="A49" s="16">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3">
+        <v>48</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="23">
+      <c r="D49" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="25">
         <v>44673</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="34">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G49" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="33">
+      <c r="G49" s="34">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="43">
         <v>30</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="43">
         <v>20</v>
       </c>
-      <c r="L49" s="33">
+      <c r="L49" s="43">
         <v>2</v>
       </c>
-      <c r="M49" s="33">
-        <v>120</v>
-      </c>
-      <c r="N49" s="33">
-        <v>3</v>
-      </c>
-      <c r="O49" s="33">
-        <v>4</v>
-      </c>
-      <c r="P49" s="40" t="str">
+      <c r="M49" s="43">
+        <v>120</v>
+      </c>
+      <c r="N49" s="43">
+        <v>3</v>
+      </c>
+      <c r="O49" s="43">
+        <v>4</v>
+      </c>
+      <c r="P49" s="54" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-22</v>
       </c>
-      <c r="Q49" s="43" t="str">
+      <c r="Q49" s="60" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-22T14:00:00.000+9</v>
       </c>
-      <c r="R49" s="43" t="str">
+      <c r="R49" s="60" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-22T15:30:00.000+9</v>
       </c>
-      <c r="S49" s="43" t="str">
+      <c r="S49" s="60" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-22T00:00:00.000+9</v>
       </c>
-      <c r="T49" s="47" t="str">
+      <c r="T49" s="67" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-22T00:00:00.000+9</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="1" customFormat="1">
       <c r="A50" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" s="3">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="23">
+      <c r="D50" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="25">
         <v>44677</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="34">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G50" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="33">
+      <c r="G50" s="34">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="43">
         <v>30</v>
       </c>
-      <c r="K50" s="33">
+      <c r="K50" s="43">
         <v>20</v>
       </c>
-      <c r="L50" s="33">
+      <c r="L50" s="43">
         <v>2</v>
       </c>
-      <c r="M50" s="33">
-        <v>120</v>
-      </c>
-      <c r="N50" s="33">
-        <v>3</v>
-      </c>
-      <c r="O50" s="33">
-        <v>4</v>
-      </c>
-      <c r="P50" s="40" t="str">
+      <c r="M50" s="43">
+        <v>120</v>
+      </c>
+      <c r="N50" s="43">
+        <v>3</v>
+      </c>
+      <c r="O50" s="43">
+        <v>4</v>
+      </c>
+      <c r="P50" s="54" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-26</v>
       </c>
-      <c r="Q50" s="43" t="str">
+      <c r="Q50" s="60" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-26T14:00:00.000+9</v>
       </c>
-      <c r="R50" s="43" t="str">
+      <c r="R50" s="60" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-26T15:30:00.000+9</v>
       </c>
-      <c r="S50" s="43" t="str">
+      <c r="S50" s="60" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-26T00:00:00.000+9</v>
       </c>
-      <c r="T50" s="47" t="str">
+      <c r="T50" s="67" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-26T00:00:00.000+9</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="1" customFormat="1" ht="14.25">
       <c r="A51" s="17">
-        <v>3</v>
-      </c>
-      <c r="B51" s="3">
-        <v>69</v>
-      </c>
-      <c r="C51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="20">
+        <v>50</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" s="23">
+      <c r="D51" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="31">
         <v>44678</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="40">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G51" s="28">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="33">
+      <c r="G51" s="40">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="49">
         <v>30</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="49">
         <v>20</v>
       </c>
-      <c r="L51" s="33">
+      <c r="L51" s="49">
         <v>2</v>
       </c>
-      <c r="M51" s="33">
-        <v>120</v>
-      </c>
-      <c r="N51" s="33">
-        <v>3</v>
-      </c>
-      <c r="O51" s="33">
-        <v>4</v>
-      </c>
-      <c r="P51" s="40" t="str">
+      <c r="M51" s="49">
+        <v>120</v>
+      </c>
+      <c r="N51" s="49">
+        <v>3</v>
+      </c>
+      <c r="O51" s="49">
+        <v>4</v>
+      </c>
+      <c r="P51" s="55" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-04-27</v>
       </c>
-      <c r="Q51" s="43" t="str">
+      <c r="Q51" s="61" t="str">
         <f t="shared" si="1"/>
         <v>2022-04-27T14:00:00.000+9</v>
       </c>
-      <c r="R51" s="43" t="str">
+      <c r="R51" s="61" t="str">
         <f t="shared" si="2"/>
         <v>2022-04-27T15:30:00.000+9</v>
       </c>
-      <c r="S51" s="43" t="str">
+      <c r="S51" s="61" t="str">
         <f t="shared" si="3"/>
         <v>2022-04-27T00:00:00.000+9</v>
       </c>
-      <c r="T51" s="47" t="str">
+      <c r="T51" s="68" t="str">
         <f t="shared" si="4"/>
         <v>2022-04-27T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="1" customFormat="1">
-      <c r="A52" s="1">
-        <v>3</v>
-      </c>
-      <c r="B52" s="3">
-        <v>72</v>
-      </c>
-      <c r="C52" s="3" t="s">
+    <row r="52" spans="1:20" s="1" customFormat="1" ht="14.25">
+      <c r="A52" s="18">
+        <v>4</v>
+      </c>
+      <c r="B52" s="21">
+        <v>51</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6">
+      <c r="D52" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="32">
         <v>44645</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="41">
         <v>0.625</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="41">
         <v>0.64583333333333293</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="41">
         <v>0.625</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="41">
         <v>0.64583333333333293</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="21">
         <v>30</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="21">
         <v>0</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="21">
         <v>0</v>
       </c>
-      <c r="M52" s="3">
-        <v>120</v>
-      </c>
-      <c r="N52" s="3">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
-        <v>4</v>
-      </c>
-      <c r="P52" s="38" t="str">
+      <c r="M52" s="21">
+        <v>120</v>
+      </c>
+      <c r="N52" s="21">
+        <v>3</v>
+      </c>
+      <c r="O52" s="21">
+        <v>4</v>
+      </c>
+      <c r="P52" s="56" t="str">
         <f t="shared" si="0"/>
         <v>巽今宮病院_4/1～4/27（モデルナ）/2022-03-25</v>
       </c>
-      <c r="Q52" s="9" t="str">
+      <c r="Q52" s="62" t="str">
         <f t="shared" si="1"/>
         <v>2022-03-25T15:00:00.000+9</v>
       </c>
-      <c r="R52" s="9" t="str">
+      <c r="R52" s="62" t="str">
         <f t="shared" si="2"/>
         <v>2022-03-25T15:30:00.000+9</v>
       </c>
-      <c r="S52" s="9" t="str">
+      <c r="S52" s="62" t="str">
         <f t="shared" si="3"/>
         <v>2022-03-25T15:00:00.000+9</v>
       </c>
-      <c r="T52" s="9" t="str">
+      <c r="T52" s="69" t="str">
         <f t="shared" si="4"/>
         <v>2022-03-25T15:30:00.000+9</v>
       </c>
